--- a/biology/Zoologie/Aculithus_hippocampus/Aculithus_hippocampus.xlsx
+++ b/biology/Zoologie/Aculithus_hippocampus/Aculithus_hippocampus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aculithus hippocampus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aculithus hippocampus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Hunan en Chine[1],[2]. Elle se rencontre dans le xian de Dao.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Hunan en Chine,. Elle se rencontre dans le xian de Dao.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,65 mm et la femelle paratype 2,96 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,65 mm et la femelle paratype 2,96 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia hippocampa par Jin, Fu, Yin et Zhang en 2016. Elle est placée dans le genre Aculithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia hippocampa par Jin, Fu, Yin et Zhang en 2016. Elle est placée dans le genre Aculithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jin, Fu, Yin &amp; Zhang, 2016 : « Four new species of the genus Otacilia Thorell, 1897 from Hunan Province, China (Araneae, Phrurolithidae). » ZooKeys, no 620, p. 30-55 (texte intégral).</t>
         </is>
